--- a/data/trans_dic/P28B_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P28B_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha dormido peor respecto al último mes</t>
+          <t>Población que ha dormido peor respecto al último mes (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>33,84%</t>
+          <t>33,64%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,36%</t>
+          <t>37,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,37%</t>
+          <t>27,05%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,49%</t>
+          <t>31,38%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>19,72%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>32,49%</t>
+          <t>35,69%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>21,97%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>14,61%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,89; 44,04</t>
+          <t>16,28; 49,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,56; 15,5</t>
+          <t>6,38; 28,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,66; 17,64</t>
+          <t>3,64; 22,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,38; 18,6</t>
+          <t>2,19; 21,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,99; 40,75</t>
+          <t>25,88; 52,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,64; 26,65</t>
+          <t>15,64; 42,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,27; 32,27</t>
+          <t>18,95; 46,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,69; 20,56</t>
+          <t>9,58; 34,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,26; 39,33</t>
+          <t>24,83; 47,02</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,56; 19,7</t>
+          <t>13,26; 33,5</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,56; 23,63</t>
+          <t>13,94; 32,75</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,47; 17,26</t>
+          <t>7,79; 23,47</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>37,01%</t>
+          <t>35,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>26,86%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>50,36%</t>
+          <t>51,98%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>26,75%</t>
+          <t>32,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,84%</t>
+          <t>26,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>22,39%</t>
+          <t>20,4%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>43,99%</t>
+          <t>44,01%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>26,8%</t>
+          <t>30,9%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>22,54%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>18,7%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,67; 42,91</t>
+          <t>27,58; 43,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,58; 35,32</t>
+          <t>20,71; 42,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,43; 21,71</t>
+          <t>12,95; 25,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,18; 18,79</t>
+          <t>11,4; 24,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,48; 56,73</t>
+          <t>44,83; 59,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,78; 31,78</t>
+          <t>25,34; 38,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,46; 28,13</t>
+          <t>20,12; 33,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,35; 27,87</t>
+          <t>15,25; 26,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>39,67; 48,52</t>
+          <t>38,66; 50,7</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22,82; 31,56</t>
+          <t>25,67; 37,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,64; 23,5</t>
+          <t>18,23; 27,6</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,12; 21,36</t>
+          <t>14,58; 23,71</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>35,51%</t>
+          <t>30,91%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>20,17%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>17,71%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>54,26%</t>
+          <t>53,84%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>28,9%</t>
+          <t>28,39%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>28,68%</t>
+          <t>26,79%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>28,86%</t>
+          <t>25,38%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>45,59%</t>
+          <t>43,69%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>24,41%</t>
+          <t>24,79%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>24,29%</t>
+          <t>22,7%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>20,34%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,3; 41,99</t>
+          <t>22,84; 39,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,68; 26,91</t>
+          <t>13,38; 32,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,83; 27,28</t>
+          <t>11,08; 28,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,84; 19,34</t>
+          <t>8,82; 21,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>47,03; 60,44</t>
+          <t>45,97; 61,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,73; 34,83</t>
+          <t>22,22; 35,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,01; 34,81</t>
+          <t>20,3; 34,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,49; 35,04</t>
+          <t>18,75; 32,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>40,83; 49,99</t>
+          <t>37,98; 49,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,58; 28,76</t>
+          <t>19,96; 30,6</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>20,31; 29,24</t>
+          <t>18,21; 29,01</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,91; 25,24</t>
+          <t>15,65; 24,97</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>35,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>48,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>42,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1145,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,46; 40,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,74; 26,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,29; 20,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,26; 15,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,46; 52,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,68; 29,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,52; 28,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,05; 26,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>39,69; 45,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>21,31; 26,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,63; 23,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,59; 20,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>33,51%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>24,2%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>17,22%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>15,0%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>50,78%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>29,86%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>27,36%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>22,29%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>42,75%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>27,28%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>22,52%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>18,72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>28,04; 38,81</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>19,25; 32,03</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>13,29; 22,77</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>11,2; 19,82</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>45,42; 55,55</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>25,12; 34,64</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>22,87; 31,79</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>18,2; 26,48</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>38,67; 46,6</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>23,79; 31,08</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>19,24; 25,55</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>16,06; 22,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
@@ -1216,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha dormido peor respecto al último mes (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>34767</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14726</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12301</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10626</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>44166</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>38539</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>36244</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>23306</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>78933</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>53264</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>48546</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>33932</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>16821; 51150</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6488; 28559</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3841; 23496</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2505; 24867</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>30492; 62426</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>22282; 60906</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>21889; 53622</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11324; 40976</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>54902; 103981</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>32384; 81788</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>30812; 72359</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>18101; 54512</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>129951</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>127229</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>69252</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>68297</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>203033</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>148106</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>100973</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>76557</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>332984</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>275334</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>170225</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>144853</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>100932; 159891</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>88937; 182666</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>48740; 96323</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>45543; 96727</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>175113; 233152</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>116943; 177792</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>76229; 125794</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>57218; 99556</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>292499; 383615</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>228729; 336607</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>137667; 208397</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>112987; 183705</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>88387</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>67135</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>50004</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>39133</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>193629</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>121603</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>92317</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>83098</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>282015</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>188738</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>142321</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>122231</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>65298; 113381</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>44535; 106588</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>31280; 81258</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>24130; 58700</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>165298; 222943</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>95185; 151924</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>69954; 118999</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>61407; 105191</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>245170; 319424</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>151971; 232953</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>114176; 181905</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>94081; 150093</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>309.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>253105</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>209089</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>131557</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>118056</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>440827</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>308248</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>229534</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>182961</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>693932</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>517337</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>361091</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>301017</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>211791; 293089</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>166311; 276791</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>101516; 174003</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>88143; 156006</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>394264; 482229</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>259391; 357585</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>191906; 266717</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>149402; 217366</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>627690; 756449</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>451253; 589338</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>308516; 409630</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>258295; 353770</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>